--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,43</t>
+          <t>30,9; 36,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 51,63</t>
+          <t>45,12; 51,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,53; 45,42</t>
+          <t>38,94; 45,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,49; 54,8</t>
+          <t>46,55; 54,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,28; 50,9</t>
+          <t>44,97; 50,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,08; 64,35</t>
+          <t>58,87; 64,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,65; 63,09</t>
+          <t>56,86; 63,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,81; 70,43</t>
+          <t>64,99; 70,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,48; 43,38</t>
+          <t>39,43; 43,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,06; 58,4</t>
+          <t>54,14; 58,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 54,7</t>
+          <t>49,99; 54,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,69; 63,5</t>
+          <t>58,95; 63,69</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 10,81</t>
+          <t>8,18; 11,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,56</t>
+          <t>15,01; 18,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 19,45</t>
+          <t>16,05; 19,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,88; 28,44</t>
+          <t>23,85; 28,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 19,92</t>
+          <t>16,16; 20,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 30,44</t>
+          <t>25,85; 30,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,61; 28,88</t>
+          <t>24,59; 28,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,87; 49,8</t>
+          <t>33,79; 48,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 14,8</t>
+          <t>12,43; 14,9</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,59</t>
+          <t>20,69; 23,53</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,63; 23,29</t>
+          <t>20,72; 23,47</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,63</t>
+          <t>29,78; 38,92</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,1</t>
+          <t>9,43; 15,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,81</t>
+          <t>9,85; 16,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 20,31</t>
+          <t>13,42; 20,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,65; 28,28</t>
+          <t>21,2; 28,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,79</t>
+          <t>16,22; 23,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 27,21</t>
+          <t>18,8; 27,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 23,09</t>
+          <t>15,86; 22,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 31,97</t>
+          <t>25,79; 31,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,01</t>
+          <t>13,57; 17,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 20,62</t>
+          <t>15,33; 20,58</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,58</t>
+          <t>15,6; 20,44</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 28,97</t>
+          <t>24,53; 29,03</t>
         </is>
       </c>
     </row>
@@ -1144,47 +1144,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,36; 18,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,73; 26,83</t>
+          <t>23,74; 26,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 24,41</t>
+          <t>21,58; 24,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 31,47</t>
+          <t>27,82; 31,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,23; 31,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 41,65</t>
+          <t>38,3; 41,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 36,53</t>
+          <t>33,2; 36,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,2; 49,48</t>
+          <t>40,46; 48,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,68; 24,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 30,08</t>
+          <t>27,84; 30,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,1; 39,98</t>
+          <t>35,16; 41,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,9; 36,46</t>
+          <t>30,55; 36,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,12; 51,89</t>
+          <t>45,36; 51,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,94; 45,6</t>
+          <t>38,42; 45,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>44,97; 50,31</t>
+          <t>45,01; 50,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>58,87; 64,52</t>
+          <t>59,12; 64,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,86; 63,06</t>
+          <t>56,79; 63,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,43; 43,49</t>
+          <t>39,54; 43,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,14; 58,22</t>
+          <t>54,1; 58,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,99; 54,76</t>
+          <t>49,72; 54,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 11,04</t>
+          <t>8,13; 10,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,01; 18,66</t>
+          <t>15,12; 18,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,05; 19,52</t>
+          <t>15,97; 19,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,16; 20,0</t>
+          <t>16,17; 20,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,85; 30,18</t>
+          <t>25,82; 30,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,59; 28,6</t>
+          <t>24,48; 28,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 14,9</t>
+          <t>12,39; 14,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,53</t>
+          <t>20,63; 23,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,72; 23,47</t>
+          <t>20,59; 23,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,43; 15,51</t>
+          <t>9,66; 15,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,85; 16,89</t>
+          <t>10,05; 16,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,42; 20,15</t>
+          <t>13,24; 19,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,22; 23,43</t>
+          <t>16,14; 23,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,8; 27,31</t>
+          <t>18,85; 27,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,86; 22,34</t>
+          <t>15,58; 22,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,57; 17,96</t>
+          <t>13,43; 18,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,33; 20,58</t>
+          <t>15,21; 20,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 20,44</t>
+          <t>15,69; 20,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,89</t>
+          <t>16,06; 18,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,74; 26,83</t>
+          <t>23,68; 26,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,58; 24,51</t>
+          <t>21,43; 24,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,23; 31,32</t>
+          <t>28,02; 31,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,3; 41,67</t>
+          <t>38,47; 41,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,2; 36,44</t>
+          <t>33,25; 36,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 24,7</t>
+          <t>22,72; 24,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,55; 33,96</t>
+          <t>31,67; 33,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,84; 30,11</t>
+          <t>27,94; 30,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 36,33</t>
+          <t>30,74; 36,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,36; 51,96</t>
+          <t>45,13; 51,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,42; 45,44</t>
+          <t>38,53; 45,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,55; 54,54</t>
+          <t>46,49; 54,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,01; 50,6</t>
+          <t>45,28; 50,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,12; 64,69</t>
+          <t>59,08; 64,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,79; 63,04</t>
+          <t>56,65; 63,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,99; 70,75</t>
+          <t>64,81; 70,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,54; 43,49</t>
+          <t>39,48; 43,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,1; 58,39</t>
+          <t>54,06; 58,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,72; 54,8</t>
+          <t>49,79; 54,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,95; 63,69</t>
+          <t>58,69; 63,5</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,13; 10,98</t>
+          <t>8,05; 10,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,79</t>
+          <t>15,12; 18,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,97; 19,31</t>
+          <t>16,1; 19,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,85; 28,45</t>
+          <t>23,88; 28,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,0</t>
+          <t>16,04; 19,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,82; 30,16</t>
+          <t>25,89; 30,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,48; 28,76</t>
+          <t>24,61; 28,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,79; 48,41</t>
+          <t>33,87; 49,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,39; 14,69</t>
+          <t>12,55; 14,8</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,63; 23,61</t>
+          <t>20,69; 23,59</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,59; 23,32</t>
+          <t>20,63; 23,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,78; 38,92</t>
+          <t>29,64; 38,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,66; 15,35</t>
+          <t>9,68; 15,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,05; 16,58</t>
+          <t>10,04; 16,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,24; 19,98</t>
+          <t>13,58; 20,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 28,27</t>
+          <t>21,65; 28,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,55</t>
+          <t>16,32; 23,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,85; 27,24</t>
+          <t>18,82; 27,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,58; 22,84</t>
+          <t>15,96; 23,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,79; 31,71</t>
+          <t>26,09; 31,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,07</t>
+          <t>13,19; 18,01</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,21; 20,47</t>
+          <t>15,04; 20,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,69; 20,33</t>
+          <t>15,46; 20,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,53; 29,03</t>
+          <t>24,39; 28,97</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,9</t>
+          <t>16,23; 18,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,68; 26,91</t>
+          <t>23,73; 26,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 24,49</t>
+          <t>21,64; 24,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 31,64</t>
+          <t>27,92; 31,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,02; 31,28</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,47; 41,83</t>
+          <t>38,27; 41,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,25; 36,67</t>
+          <t>33,11; 36,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,46; 48,36</t>
+          <t>40,2; 49,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,72; 24,78</t>
+          <t>22,64; 24,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,67; 33,94</t>
+          <t>31,55; 33,96</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,09</t>
+          <t>27,95; 30,08</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,16; 41,08</t>
+          <t>35,1; 39,98</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,83%</t>
+          <t>50,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>67,95%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>61,18%</t>
+          <t>60,92%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,49; 54,8</t>
+          <t>46,35; 54,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,81; 70,43</t>
+          <t>64,94; 70,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,69; 63,5</t>
+          <t>58,36; 63,27</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,23%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>37,68%</t>
+          <t>39,35%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,35%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,88; 28,44</t>
+          <t>17,03; 27,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>33,87; 49,8</t>
+          <t>32,46; 59,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,64; 38,63</t>
+          <t>26,47; 40,5</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>28,61%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>26,63%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,65; 28,28</t>
+          <t>21,54; 28,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 31,97</t>
+          <t>25,97; 31,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,39; 28,97</t>
+          <t>24,26; 28,91</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>27,78%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42,64%</t>
+          <t>43,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>36,63%</t>
+          <t>35,77%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,92; 31,47</t>
+          <t>22,02; 30,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>40,2; 49,48</t>
+          <t>38,85; 54,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,1; 39,98</t>
+          <t>32,3; 41,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,74; 36,43</t>
+          <t>30,67; 36,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>45,13; 51,63</t>
+          <t>44,91; 52,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,53; 45,42</t>
+          <t>38,47; 45,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,35; 54,78</t>
+          <t>46,7; 54,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,28; 50,9</t>
+          <t>45,22; 50,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>59,08; 64,35</t>
+          <t>59,03; 64,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>56,65; 63,09</t>
+          <t>56,89; 63,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,94; 70,51</t>
+          <t>65,27; 70,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,48; 43,38</t>
+          <t>39,22; 43,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>54,06; 58,4</t>
+          <t>54,01; 58,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 54,7</t>
+          <t>49,77; 54,67</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>58,36; 63,27</t>
+          <t>58,56; 63,25</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 10,81</t>
+          <t>8,06; 10,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,12; 18,56</t>
+          <t>14,92; 18,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 19,45</t>
+          <t>15,93; 19,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 27,13</t>
+          <t>16,88; 27,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,04; 19,92</t>
+          <t>16,02; 20,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,89; 30,44</t>
+          <t>25,72; 30,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,61; 28,88</t>
+          <t>24,55; 28,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,46; 59,0</t>
+          <t>32,36; 56,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 14,8</t>
+          <t>12,41; 14,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,59</t>
+          <t>20,71; 23,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,63; 23,29</t>
+          <t>20,7; 23,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>26,47; 40,5</t>
+          <t>26,76; 41,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,1</t>
+          <t>9,72; 15,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,81</t>
+          <t>10,07; 16,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,58; 20,31</t>
+          <t>13,34; 20,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,54; 28,16</t>
+          <t>21,17; 28,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 23,79</t>
+          <t>15,93; 23,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 27,21</t>
+          <t>18,84; 27,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,96; 23,09</t>
+          <t>16,06; 22,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,97; 31,87</t>
+          <t>25,65; 31,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,19; 18,01</t>
+          <t>13,24; 17,87</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>15,04; 20,62</t>
+          <t>15,5; 20,75</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 20,58</t>
+          <t>15,65; 20,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>24,26; 28,91</t>
+          <t>24,51; 28,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,13; 18,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,73; 26,83</t>
+          <t>23,69; 26,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,64; 24,41</t>
+          <t>21,39; 24,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,49</t>
+          <t>21,46; 30,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,15; 31,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,27; 41,65</t>
+          <t>38,4; 41,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,11; 36,53</t>
+          <t>33,28; 36,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,85; 54,47</t>
+          <t>39,16; 53,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,7; 24,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,55; 33,96</t>
+          <t>31,65; 34,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 30,08</t>
+          <t>28,0; 30,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>32,3; 41,33</t>
+          <t>32,14; 42,13</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1013</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>971</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1394</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>344710</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>472370</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>318353</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>260578</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>628223</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>825861</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>596752</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>513374</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>972932</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1298230</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>915104</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>773953</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>316400; 374959</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>437669; 507023</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>290230; 344907</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>240475; 282928</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>594722; 664293</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>789706; 862689</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>565894; 628840</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>493143; 533093</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>920461; 1020276</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1249020; 1346205</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>870547; 956131</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>743994; 803526</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1142</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>750</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>830</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1770</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>159917</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>328686</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>366582</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>538991</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>284941</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>492190</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>528372</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>880613</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>444858</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>820877</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>894955</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1419604</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>136565; 184963</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>293121; 367101</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>330725; 401559</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>386634; 619896</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>254317; 318451</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>452065; 531480</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>488206; 568844</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>724188; 1261774</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>407213; 484133</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>770824; 871956</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>841305; 947224</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1211672; 1899616</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>67474</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>62749</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>91133</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>159208</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>93350</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>104318</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>105277</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>188931</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>160824</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>167067</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>196410</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>348138</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53591; 85425</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48438; 80365</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72936; 109355</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>136888; 181082</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>75900; 112608</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>86416; 124543</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>88174; 124723</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>169430; 210766</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>136046; 183690</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145710; 195005</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>171582; 221947</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>320307; 377320</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2473</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1864</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>572101</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>863805</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>776068</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>958778</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1006514</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1422369</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1230401</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1582918</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1578614</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2286174</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2006468</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>2541696</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>528509; 612482</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>809982; 919467</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>722350; 827273</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>740790; 1057219</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>951145; 1064005</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1364796; 1479250</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1175342; 1294202</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1430840; 1969666</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1510894; 1648760</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2207496; 2371036</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1934881; 2092409</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2283661; 2993426</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>